--- a/users.xlsx
+++ b/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E14BCF-0139-4541-84F3-143FB099ED38}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C7A4CA-6974-44F8-9614-F71552095CFE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,13 +43,13 @@
     <t>passadmin</t>
   </si>
   <si>
-    <t>User1</t>
-  </si>
-  <si>
-    <t>User2</t>
-  </si>
-  <si>
-    <t>User3</t>
+    <t>Іваненко</t>
+  </si>
+  <si>
+    <t>Петренко</t>
+  </si>
+  <si>
+    <t>Заічко</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C7A4CA-6974-44F8-9614-F71552095CFE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F136E9-64CB-4529-A6D9-A5B09C341B3A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Username</t>
   </si>
@@ -31,25 +31,253 @@
     <t>admin</t>
   </si>
   <si>
-    <t>pass111</t>
-  </si>
-  <si>
-    <t>pass222</t>
-  </si>
-  <si>
-    <t>pass333</t>
-  </si>
-  <si>
     <t>passadmin</t>
   </si>
   <si>
-    <t>Іваненко</t>
-  </si>
-  <si>
-    <t>Петренко</t>
-  </si>
-  <si>
-    <t>Заічко</t>
+    <t>W101</t>
+  </si>
+  <si>
+    <t>W102</t>
+  </si>
+  <si>
+    <t>W103</t>
+  </si>
+  <si>
+    <t>W1111</t>
+  </si>
+  <si>
+    <t>W1112</t>
+  </si>
+  <si>
+    <t>W1113</t>
+  </si>
+  <si>
+    <t>W1114</t>
+  </si>
+  <si>
+    <t>W1115</t>
+  </si>
+  <si>
+    <t>W1116</t>
+  </si>
+  <si>
+    <t>W1121</t>
+  </si>
+  <si>
+    <t>W1122</t>
+  </si>
+  <si>
+    <t>W1123</t>
+  </si>
+  <si>
+    <t>W1124</t>
+  </si>
+  <si>
+    <t>W1125</t>
+  </si>
+  <si>
+    <t>W1126</t>
+  </si>
+  <si>
+    <t>W1131</t>
+  </si>
+  <si>
+    <t>W1132</t>
+  </si>
+  <si>
+    <t>W1133</t>
+  </si>
+  <si>
+    <t>W1134</t>
+  </si>
+  <si>
+    <t>W1135</t>
+  </si>
+  <si>
+    <t>W1136</t>
+  </si>
+  <si>
+    <t>W1211</t>
+  </si>
+  <si>
+    <t>W1212</t>
+  </si>
+  <si>
+    <t>W1213</t>
+  </si>
+  <si>
+    <t>W1214</t>
+  </si>
+  <si>
+    <t>W1215</t>
+  </si>
+  <si>
+    <t>W1216</t>
+  </si>
+  <si>
+    <t>pass101</t>
+  </si>
+  <si>
+    <t>pass1111</t>
+  </si>
+  <si>
+    <t>pass1112</t>
+  </si>
+  <si>
+    <t>pass1113</t>
+  </si>
+  <si>
+    <t>pass1114</t>
+  </si>
+  <si>
+    <t>pass1115</t>
+  </si>
+  <si>
+    <t>pass1116</t>
+  </si>
+  <si>
+    <t>pass1121</t>
+  </si>
+  <si>
+    <t>pass1122</t>
+  </si>
+  <si>
+    <t>pass1123</t>
+  </si>
+  <si>
+    <t>pass1124</t>
+  </si>
+  <si>
+    <t>pass1125</t>
+  </si>
+  <si>
+    <t>pass1126</t>
+  </si>
+  <si>
+    <t>pass1131</t>
+  </si>
+  <si>
+    <t>pass1132</t>
+  </si>
+  <si>
+    <t>pass1133</t>
+  </si>
+  <si>
+    <t>pass1134</t>
+  </si>
+  <si>
+    <t>pass1135</t>
+  </si>
+  <si>
+    <t>pass1136</t>
+  </si>
+  <si>
+    <t>pass1211</t>
+  </si>
+  <si>
+    <t>pass1212</t>
+  </si>
+  <si>
+    <t>pass1213</t>
+  </si>
+  <si>
+    <t>pass1214</t>
+  </si>
+  <si>
+    <t>pass1215</t>
+  </si>
+  <si>
+    <t>pass1216</t>
+  </si>
+  <si>
+    <t>pass102</t>
+  </si>
+  <si>
+    <t>pass103</t>
+  </si>
+  <si>
+    <t>W1221</t>
+  </si>
+  <si>
+    <t>W1222</t>
+  </si>
+  <si>
+    <t>W1223</t>
+  </si>
+  <si>
+    <t>W1224</t>
+  </si>
+  <si>
+    <t>W1225</t>
+  </si>
+  <si>
+    <t>W1226</t>
+  </si>
+  <si>
+    <t>W1231</t>
+  </si>
+  <si>
+    <t>W1232</t>
+  </si>
+  <si>
+    <t>W1233</t>
+  </si>
+  <si>
+    <t>W1234</t>
+  </si>
+  <si>
+    <t>W1235</t>
+  </si>
+  <si>
+    <t>W1236</t>
+  </si>
+  <si>
+    <t>pass1221</t>
+  </si>
+  <si>
+    <t>pass1222</t>
+  </si>
+  <si>
+    <t>pass1223</t>
+  </si>
+  <si>
+    <t>pass1224</t>
+  </si>
+  <si>
+    <t>pass1225</t>
+  </si>
+  <si>
+    <t>pass1226</t>
+  </si>
+  <si>
+    <t>W110</t>
+  </si>
+  <si>
+    <t>pass110</t>
+  </si>
+  <si>
+    <t>pass1231</t>
+  </si>
+  <si>
+    <t>pass1232</t>
+  </si>
+  <si>
+    <t>pass1233</t>
+  </si>
+  <si>
+    <t>pass1234</t>
+  </si>
+  <si>
+    <t>pass1235</t>
+  </si>
+  <si>
+    <t>pass1236</t>
+  </si>
+  <si>
+    <t>W120</t>
+  </si>
+  <si>
+    <t>pass120</t>
   </si>
 </sst>
 </file>
@@ -377,16 +605,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -399,7 +627,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -407,26 +635,330 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/users.xlsx
+++ b/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F136E9-64CB-4529-A6D9-A5B09C341B3A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0327E334-0E98-4AB3-8B1C-0C4FF859973A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="414">
   <si>
     <t>Username</t>
   </si>
@@ -278,13 +278,997 @@
   </si>
   <si>
     <t>pass120</t>
+  </si>
+  <si>
+    <t>W201</t>
+  </si>
+  <si>
+    <t>pass201</t>
+  </si>
+  <si>
+    <t>W202</t>
+  </si>
+  <si>
+    <t>pass202</t>
+  </si>
+  <si>
+    <t>W203</t>
+  </si>
+  <si>
+    <t>pass203</t>
+  </si>
+  <si>
+    <t>W210</t>
+  </si>
+  <si>
+    <t>pass210</t>
+  </si>
+  <si>
+    <t>W2111</t>
+  </si>
+  <si>
+    <t>pass2111</t>
+  </si>
+  <si>
+    <t>W2112</t>
+  </si>
+  <si>
+    <t>pass2112</t>
+  </si>
+  <si>
+    <t>W2113</t>
+  </si>
+  <si>
+    <t>pass2113</t>
+  </si>
+  <si>
+    <t>W2114</t>
+  </si>
+  <si>
+    <t>pass2114</t>
+  </si>
+  <si>
+    <t>W2115</t>
+  </si>
+  <si>
+    <t>pass2115</t>
+  </si>
+  <si>
+    <t>W2116</t>
+  </si>
+  <si>
+    <t>pass2116</t>
+  </si>
+  <si>
+    <t>W2121</t>
+  </si>
+  <si>
+    <t>pass2121</t>
+  </si>
+  <si>
+    <t>W2122</t>
+  </si>
+  <si>
+    <t>pass2122</t>
+  </si>
+  <si>
+    <t>W2123</t>
+  </si>
+  <si>
+    <t>pass2123</t>
+  </si>
+  <si>
+    <t>W2124</t>
+  </si>
+  <si>
+    <t>pass2124</t>
+  </si>
+  <si>
+    <t>W2125</t>
+  </si>
+  <si>
+    <t>pass2125</t>
+  </si>
+  <si>
+    <t>W2126</t>
+  </si>
+  <si>
+    <t>pass2126</t>
+  </si>
+  <si>
+    <t>W2131</t>
+  </si>
+  <si>
+    <t>pass2131</t>
+  </si>
+  <si>
+    <t>W2132</t>
+  </si>
+  <si>
+    <t>pass2132</t>
+  </si>
+  <si>
+    <t>W2133</t>
+  </si>
+  <si>
+    <t>pass2133</t>
+  </si>
+  <si>
+    <t>W2134</t>
+  </si>
+  <si>
+    <t>pass2134</t>
+  </si>
+  <si>
+    <t>W2135</t>
+  </si>
+  <si>
+    <t>pass2135</t>
+  </si>
+  <si>
+    <t>W2136</t>
+  </si>
+  <si>
+    <t>pass2136</t>
+  </si>
+  <si>
+    <t>W220</t>
+  </si>
+  <si>
+    <t>pass220</t>
+  </si>
+  <si>
+    <t>W2211</t>
+  </si>
+  <si>
+    <t>pass2211</t>
+  </si>
+  <si>
+    <t>W2212</t>
+  </si>
+  <si>
+    <t>pass2212</t>
+  </si>
+  <si>
+    <t>W2213</t>
+  </si>
+  <si>
+    <t>pass2213</t>
+  </si>
+  <si>
+    <t>W2214</t>
+  </si>
+  <si>
+    <t>pass2214</t>
+  </si>
+  <si>
+    <t>W2215</t>
+  </si>
+  <si>
+    <t>pass2215</t>
+  </si>
+  <si>
+    <t>W2216</t>
+  </si>
+  <si>
+    <t>pass2216</t>
+  </si>
+  <si>
+    <t>W2221</t>
+  </si>
+  <si>
+    <t>pass2221</t>
+  </si>
+  <si>
+    <t>W2222</t>
+  </si>
+  <si>
+    <t>pass2222</t>
+  </si>
+  <si>
+    <t>W2223</t>
+  </si>
+  <si>
+    <t>pass2223</t>
+  </si>
+  <si>
+    <t>W2224</t>
+  </si>
+  <si>
+    <t>pass2224</t>
+  </si>
+  <si>
+    <t>W2225</t>
+  </si>
+  <si>
+    <t>pass2225</t>
+  </si>
+  <si>
+    <t>W2226</t>
+  </si>
+  <si>
+    <t>pass2226</t>
+  </si>
+  <si>
+    <t>W2231</t>
+  </si>
+  <si>
+    <t>pass2231</t>
+  </si>
+  <si>
+    <t>W2232</t>
+  </si>
+  <si>
+    <t>pass2232</t>
+  </si>
+  <si>
+    <t>W2233</t>
+  </si>
+  <si>
+    <t>pass2233</t>
+  </si>
+  <si>
+    <t>W2234</t>
+  </si>
+  <si>
+    <t>pass2234</t>
+  </si>
+  <si>
+    <t>W2235</t>
+  </si>
+  <si>
+    <t>pass2235</t>
+  </si>
+  <si>
+    <t>W2236</t>
+  </si>
+  <si>
+    <t>pass2236</t>
+  </si>
+  <si>
+    <t>W301</t>
+  </si>
+  <si>
+    <t>pass301</t>
+  </si>
+  <si>
+    <t>W302</t>
+  </si>
+  <si>
+    <t>pass302</t>
+  </si>
+  <si>
+    <t>W303</t>
+  </si>
+  <si>
+    <t>pass303</t>
+  </si>
+  <si>
+    <t>W310</t>
+  </si>
+  <si>
+    <t>pass310</t>
+  </si>
+  <si>
+    <t>W3111</t>
+  </si>
+  <si>
+    <t>pass3111</t>
+  </si>
+  <si>
+    <t>W3112</t>
+  </si>
+  <si>
+    <t>pass3112</t>
+  </si>
+  <si>
+    <t>W3113</t>
+  </si>
+  <si>
+    <t>pass3113</t>
+  </si>
+  <si>
+    <t>W3114</t>
+  </si>
+  <si>
+    <t>pass3114</t>
+  </si>
+  <si>
+    <t>W3115</t>
+  </si>
+  <si>
+    <t>pass3115</t>
+  </si>
+  <si>
+    <t>W3116</t>
+  </si>
+  <si>
+    <t>pass3116</t>
+  </si>
+  <si>
+    <t>W3121</t>
+  </si>
+  <si>
+    <t>pass3121</t>
+  </si>
+  <si>
+    <t>W3122</t>
+  </si>
+  <si>
+    <t>pass3122</t>
+  </si>
+  <si>
+    <t>W3123</t>
+  </si>
+  <si>
+    <t>pass3123</t>
+  </si>
+  <si>
+    <t>W3124</t>
+  </si>
+  <si>
+    <t>pass3124</t>
+  </si>
+  <si>
+    <t>W3125</t>
+  </si>
+  <si>
+    <t>pass3125</t>
+  </si>
+  <si>
+    <t>W3126</t>
+  </si>
+  <si>
+    <t>pass3126</t>
+  </si>
+  <si>
+    <t>W3131</t>
+  </si>
+  <si>
+    <t>pass3131</t>
+  </si>
+  <si>
+    <t>W3132</t>
+  </si>
+  <si>
+    <t>pass3132</t>
+  </si>
+  <si>
+    <t>W3133</t>
+  </si>
+  <si>
+    <t>pass3133</t>
+  </si>
+  <si>
+    <t>W3134</t>
+  </si>
+  <si>
+    <t>pass3134</t>
+  </si>
+  <si>
+    <t>W3135</t>
+  </si>
+  <si>
+    <t>pass3135</t>
+  </si>
+  <si>
+    <t>W3136</t>
+  </si>
+  <si>
+    <t>pass3136</t>
+  </si>
+  <si>
+    <t>W320</t>
+  </si>
+  <si>
+    <t>pass320</t>
+  </si>
+  <si>
+    <t>W3211</t>
+  </si>
+  <si>
+    <t>pass3211</t>
+  </si>
+  <si>
+    <t>W3212</t>
+  </si>
+  <si>
+    <t>pass3212</t>
+  </si>
+  <si>
+    <t>W3213</t>
+  </si>
+  <si>
+    <t>pass3213</t>
+  </si>
+  <si>
+    <t>W3214</t>
+  </si>
+  <si>
+    <t>pass3214</t>
+  </si>
+  <si>
+    <t>W3215</t>
+  </si>
+  <si>
+    <t>pass3215</t>
+  </si>
+  <si>
+    <t>W3216</t>
+  </si>
+  <si>
+    <t>pass3216</t>
+  </si>
+  <si>
+    <t>W3221</t>
+  </si>
+  <si>
+    <t>pass3221</t>
+  </si>
+  <si>
+    <t>W3222</t>
+  </si>
+  <si>
+    <t>pass3222</t>
+  </si>
+  <si>
+    <t>W3223</t>
+  </si>
+  <si>
+    <t>pass3223</t>
+  </si>
+  <si>
+    <t>W3224</t>
+  </si>
+  <si>
+    <t>pass3224</t>
+  </si>
+  <si>
+    <t>W3225</t>
+  </si>
+  <si>
+    <t>pass3225</t>
+  </si>
+  <si>
+    <t>W3226</t>
+  </si>
+  <si>
+    <t>pass3226</t>
+  </si>
+  <si>
+    <t>W3231</t>
+  </si>
+  <si>
+    <t>pass3231</t>
+  </si>
+  <si>
+    <t>W3232</t>
+  </si>
+  <si>
+    <t>pass3232</t>
+  </si>
+  <si>
+    <t>W3233</t>
+  </si>
+  <si>
+    <t>pass3233</t>
+  </si>
+  <si>
+    <t>W3234</t>
+  </si>
+  <si>
+    <t>pass3234</t>
+  </si>
+  <si>
+    <t>W3235</t>
+  </si>
+  <si>
+    <t>pass3235</t>
+  </si>
+  <si>
+    <t>W3236</t>
+  </si>
+  <si>
+    <t>pass3236</t>
+  </si>
+  <si>
+    <t>W401</t>
+  </si>
+  <si>
+    <t>pass401</t>
+  </si>
+  <si>
+    <t>W402</t>
+  </si>
+  <si>
+    <t>pass402</t>
+  </si>
+  <si>
+    <t>W403</t>
+  </si>
+  <si>
+    <t>pass403</t>
+  </si>
+  <si>
+    <t>W410</t>
+  </si>
+  <si>
+    <t>pass410</t>
+  </si>
+  <si>
+    <t>W4111</t>
+  </si>
+  <si>
+    <t>pass4111</t>
+  </si>
+  <si>
+    <t>W4112</t>
+  </si>
+  <si>
+    <t>pass4112</t>
+  </si>
+  <si>
+    <t>W4113</t>
+  </si>
+  <si>
+    <t>pass4113</t>
+  </si>
+  <si>
+    <t>W4114</t>
+  </si>
+  <si>
+    <t>pass4114</t>
+  </si>
+  <si>
+    <t>W4115</t>
+  </si>
+  <si>
+    <t>pass4115</t>
+  </si>
+  <si>
+    <t>W4116</t>
+  </si>
+  <si>
+    <t>pass4116</t>
+  </si>
+  <si>
+    <t>W4121</t>
+  </si>
+  <si>
+    <t>pass4121</t>
+  </si>
+  <si>
+    <t>W4122</t>
+  </si>
+  <si>
+    <t>pass4122</t>
+  </si>
+  <si>
+    <t>W4123</t>
+  </si>
+  <si>
+    <t>pass4123</t>
+  </si>
+  <si>
+    <t>W4124</t>
+  </si>
+  <si>
+    <t>pass4124</t>
+  </si>
+  <si>
+    <t>W4125</t>
+  </si>
+  <si>
+    <t>pass4125</t>
+  </si>
+  <si>
+    <t>W4126</t>
+  </si>
+  <si>
+    <t>pass4126</t>
+  </si>
+  <si>
+    <t>W4131</t>
+  </si>
+  <si>
+    <t>pass4131</t>
+  </si>
+  <si>
+    <t>W4132</t>
+  </si>
+  <si>
+    <t>pass4132</t>
+  </si>
+  <si>
+    <t>W4133</t>
+  </si>
+  <si>
+    <t>pass4133</t>
+  </si>
+  <si>
+    <t>W4134</t>
+  </si>
+  <si>
+    <t>pass4134</t>
+  </si>
+  <si>
+    <t>W4135</t>
+  </si>
+  <si>
+    <t>pass4135</t>
+  </si>
+  <si>
+    <t>W4136</t>
+  </si>
+  <si>
+    <t>pass4136</t>
+  </si>
+  <si>
+    <t>W420</t>
+  </si>
+  <si>
+    <t>pass420</t>
+  </si>
+  <si>
+    <t>W4211</t>
+  </si>
+  <si>
+    <t>pass4211</t>
+  </si>
+  <si>
+    <t>W4212</t>
+  </si>
+  <si>
+    <t>pass4212</t>
+  </si>
+  <si>
+    <t>W4213</t>
+  </si>
+  <si>
+    <t>pass4213</t>
+  </si>
+  <si>
+    <t>W4214</t>
+  </si>
+  <si>
+    <t>pass4214</t>
+  </si>
+  <si>
+    <t>W4215</t>
+  </si>
+  <si>
+    <t>pass4215</t>
+  </si>
+  <si>
+    <t>W4216</t>
+  </si>
+  <si>
+    <t>pass4216</t>
+  </si>
+  <si>
+    <t>W4221</t>
+  </si>
+  <si>
+    <t>pass4221</t>
+  </si>
+  <si>
+    <t>W4222</t>
+  </si>
+  <si>
+    <t>pass4222</t>
+  </si>
+  <si>
+    <t>W4223</t>
+  </si>
+  <si>
+    <t>pass4223</t>
+  </si>
+  <si>
+    <t>W4224</t>
+  </si>
+  <si>
+    <t>pass4224</t>
+  </si>
+  <si>
+    <t>W4225</t>
+  </si>
+  <si>
+    <t>pass4225</t>
+  </si>
+  <si>
+    <t>W4226</t>
+  </si>
+  <si>
+    <t>pass4226</t>
+  </si>
+  <si>
+    <t>W4231</t>
+  </si>
+  <si>
+    <t>pass4231</t>
+  </si>
+  <si>
+    <t>W4232</t>
+  </si>
+  <si>
+    <t>pass4232</t>
+  </si>
+  <si>
+    <t>W4233</t>
+  </si>
+  <si>
+    <t>pass4233</t>
+  </si>
+  <si>
+    <t>W4234</t>
+  </si>
+  <si>
+    <t>pass4234</t>
+  </si>
+  <si>
+    <t>W4235</t>
+  </si>
+  <si>
+    <t>pass4235</t>
+  </si>
+  <si>
+    <t>W4236</t>
+  </si>
+  <si>
+    <t>pass4236</t>
+  </si>
+  <si>
+    <t>W501</t>
+  </si>
+  <si>
+    <t>pass501</t>
+  </si>
+  <si>
+    <t>W502</t>
+  </si>
+  <si>
+    <t>pass502</t>
+  </si>
+  <si>
+    <t>W503</t>
+  </si>
+  <si>
+    <t>pass503</t>
+  </si>
+  <si>
+    <t>W510</t>
+  </si>
+  <si>
+    <t>pass510</t>
+  </si>
+  <si>
+    <t>W5111</t>
+  </si>
+  <si>
+    <t>pass5111</t>
+  </si>
+  <si>
+    <t>W5112</t>
+  </si>
+  <si>
+    <t>pass5112</t>
+  </si>
+  <si>
+    <t>W5113</t>
+  </si>
+  <si>
+    <t>pass5113</t>
+  </si>
+  <si>
+    <t>W5114</t>
+  </si>
+  <si>
+    <t>pass5114</t>
+  </si>
+  <si>
+    <t>W5115</t>
+  </si>
+  <si>
+    <t>pass5115</t>
+  </si>
+  <si>
+    <t>W5116</t>
+  </si>
+  <si>
+    <t>pass5116</t>
+  </si>
+  <si>
+    <t>W5121</t>
+  </si>
+  <si>
+    <t>pass5121</t>
+  </si>
+  <si>
+    <t>W5122</t>
+  </si>
+  <si>
+    <t>pass5122</t>
+  </si>
+  <si>
+    <t>W5123</t>
+  </si>
+  <si>
+    <t>pass5123</t>
+  </si>
+  <si>
+    <t>W5124</t>
+  </si>
+  <si>
+    <t>pass5124</t>
+  </si>
+  <si>
+    <t>W5125</t>
+  </si>
+  <si>
+    <t>pass5125</t>
+  </si>
+  <si>
+    <t>W5126</t>
+  </si>
+  <si>
+    <t>pass5126</t>
+  </si>
+  <si>
+    <t>W5131</t>
+  </si>
+  <si>
+    <t>pass5131</t>
+  </si>
+  <si>
+    <t>W5132</t>
+  </si>
+  <si>
+    <t>pass5132</t>
+  </si>
+  <si>
+    <t>W5133</t>
+  </si>
+  <si>
+    <t>pass5133</t>
+  </si>
+  <si>
+    <t>W5134</t>
+  </si>
+  <si>
+    <t>pass5134</t>
+  </si>
+  <si>
+    <t>W5135</t>
+  </si>
+  <si>
+    <t>pass5135</t>
+  </si>
+  <si>
+    <t>W5136</t>
+  </si>
+  <si>
+    <t>pass5136</t>
+  </si>
+  <si>
+    <t>W520</t>
+  </si>
+  <si>
+    <t>pass520</t>
+  </si>
+  <si>
+    <t>W5211</t>
+  </si>
+  <si>
+    <t>pass5211</t>
+  </si>
+  <si>
+    <t>W5212</t>
+  </si>
+  <si>
+    <t>pass5212</t>
+  </si>
+  <si>
+    <t>W5213</t>
+  </si>
+  <si>
+    <t>pass5213</t>
+  </si>
+  <si>
+    <t>W5214</t>
+  </si>
+  <si>
+    <t>pass5214</t>
+  </si>
+  <si>
+    <t>W5215</t>
+  </si>
+  <si>
+    <t>pass5215</t>
+  </si>
+  <si>
+    <t>W5216</t>
+  </si>
+  <si>
+    <t>pass5216</t>
+  </si>
+  <si>
+    <t>W5221</t>
+  </si>
+  <si>
+    <t>pass5221</t>
+  </si>
+  <si>
+    <t>W5222</t>
+  </si>
+  <si>
+    <t>pass5222</t>
+  </si>
+  <si>
+    <t>W5223</t>
+  </si>
+  <si>
+    <t>pass5223</t>
+  </si>
+  <si>
+    <t>W5224</t>
+  </si>
+  <si>
+    <t>pass5224</t>
+  </si>
+  <si>
+    <t>W5225</t>
+  </si>
+  <si>
+    <t>pass5225</t>
+  </si>
+  <si>
+    <t>W5226</t>
+  </si>
+  <si>
+    <t>pass5226</t>
+  </si>
+  <si>
+    <t>W5231</t>
+  </si>
+  <si>
+    <t>pass5231</t>
+  </si>
+  <si>
+    <t>W5232</t>
+  </si>
+  <si>
+    <t>pass5232</t>
+  </si>
+  <si>
+    <t>W5233</t>
+  </si>
+  <si>
+    <t>pass5233</t>
+  </si>
+  <si>
+    <t>W5234</t>
+  </si>
+  <si>
+    <t>pass5234</t>
+  </si>
+  <si>
+    <t>W5235</t>
+  </si>
+  <si>
+    <t>pass5235</t>
+  </si>
+  <si>
+    <t>W5236</t>
+  </si>
+  <si>
+    <t>pass5236</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +1280,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -322,9 +1314,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -605,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,6 +1956,1318 @@
         <v>83</v>
       </c>
     </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0327E334-0E98-4AB3-8B1C-0C4FF859973A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567344A8-2769-4C02-9F48-A0B8DA7847AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="424">
   <si>
     <t>Username</t>
   </si>
@@ -1262,6 +1262,36 @@
   </si>
   <si>
     <t>pass5236</t>
+  </si>
+  <si>
+    <t>D001</t>
+  </si>
+  <si>
+    <t>pass001</t>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>pass002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>pass003</t>
+  </si>
+  <si>
+    <t>pass004</t>
+  </si>
+  <si>
+    <t>pass005</t>
   </si>
 </sst>
 </file>
@@ -1600,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B207"/>
+  <dimension ref="A1:B212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="G160" sqref="G160"/>
+      <selection activeCell="E208" sqref="E208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3268,6 +3298,46 @@
         <v>413</v>
       </c>
     </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567344A8-2769-4C02-9F48-A0B8DA7847AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119A3344-E271-4007-A1BF-56E8E2E4E7B6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
   <si>
     <t>Username</t>
   </si>
@@ -31,9 +31,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>passadmin</t>
-  </si>
-  <si>
     <t>W101</t>
   </si>
   <si>
@@ -1292,6 +1289,21 @@
   </si>
   <si>
     <t>pass005</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>D010</t>
+  </si>
+  <si>
+    <t>passInstructor</t>
+  </si>
+  <si>
+    <t>instructor</t>
+  </si>
+  <si>
+    <t>passadmin_&lt;&gt;?</t>
   </si>
 </sst>
 </file>
@@ -1630,1712 +1642,1730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B212"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="E208" sqref="E208"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>87</v>
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/users.xlsx
+++ b/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119A3344-E271-4007-A1BF-56E8E2E4E7B6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F32510-0DF8-4941-AAC8-9DFD50C18885}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="628">
   <si>
     <t>Username</t>
   </si>
@@ -1304,6 +1304,606 @@
   </si>
   <si>
     <t>passadmin_&lt;&gt;?</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>A007</t>
+  </si>
+  <si>
+    <t>A008</t>
+  </si>
+  <si>
+    <t>A009</t>
+  </si>
+  <si>
+    <t>A010</t>
+  </si>
+  <si>
+    <t>A011</t>
+  </si>
+  <si>
+    <t>A012</t>
+  </si>
+  <si>
+    <t>A013</t>
+  </si>
+  <si>
+    <t>A014</t>
+  </si>
+  <si>
+    <t>A015</t>
+  </si>
+  <si>
+    <t>A016</t>
+  </si>
+  <si>
+    <t>A017</t>
+  </si>
+  <si>
+    <t>A018</t>
+  </si>
+  <si>
+    <t>A019</t>
+  </si>
+  <si>
+    <t>A020</t>
+  </si>
+  <si>
+    <t>A021</t>
+  </si>
+  <si>
+    <t>A022</t>
+  </si>
+  <si>
+    <t>A023</t>
+  </si>
+  <si>
+    <t>A024</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>A026</t>
+  </si>
+  <si>
+    <t>A027</t>
+  </si>
+  <si>
+    <t>A028</t>
+  </si>
+  <si>
+    <t>A029</t>
+  </si>
+  <si>
+    <t>A030</t>
+  </si>
+  <si>
+    <t>A031</t>
+  </si>
+  <si>
+    <t>A032</t>
+  </si>
+  <si>
+    <t>A033</t>
+  </si>
+  <si>
+    <t>A034</t>
+  </si>
+  <si>
+    <t>A035</t>
+  </si>
+  <si>
+    <t>A036</t>
+  </si>
+  <si>
+    <t>A037</t>
+  </si>
+  <si>
+    <t>A038</t>
+  </si>
+  <si>
+    <t>A039</t>
+  </si>
+  <si>
+    <t>A040</t>
+  </si>
+  <si>
+    <t>A041</t>
+  </si>
+  <si>
+    <t>A042</t>
+  </si>
+  <si>
+    <t>A043</t>
+  </si>
+  <si>
+    <t>A044</t>
+  </si>
+  <si>
+    <t>A045</t>
+  </si>
+  <si>
+    <t>A046</t>
+  </si>
+  <si>
+    <t>A047</t>
+  </si>
+  <si>
+    <t>A048</t>
+  </si>
+  <si>
+    <t>A049</t>
+  </si>
+  <si>
+    <t>A050</t>
+  </si>
+  <si>
+    <t>A051</t>
+  </si>
+  <si>
+    <t>A052</t>
+  </si>
+  <si>
+    <t>A053</t>
+  </si>
+  <si>
+    <t>A054</t>
+  </si>
+  <si>
+    <t>A055</t>
+  </si>
+  <si>
+    <t>A056</t>
+  </si>
+  <si>
+    <t>A057</t>
+  </si>
+  <si>
+    <t>A058</t>
+  </si>
+  <si>
+    <t>A059</t>
+  </si>
+  <si>
+    <t>A060</t>
+  </si>
+  <si>
+    <t>A061</t>
+  </si>
+  <si>
+    <t>A062</t>
+  </si>
+  <si>
+    <t>A063</t>
+  </si>
+  <si>
+    <t>A064</t>
+  </si>
+  <si>
+    <t>A065</t>
+  </si>
+  <si>
+    <t>A066</t>
+  </si>
+  <si>
+    <t>A067</t>
+  </si>
+  <si>
+    <t>A068</t>
+  </si>
+  <si>
+    <t>A069</t>
+  </si>
+  <si>
+    <t>A070</t>
+  </si>
+  <si>
+    <t>A071</t>
+  </si>
+  <si>
+    <t>A072</t>
+  </si>
+  <si>
+    <t>A073</t>
+  </si>
+  <si>
+    <t>A074</t>
+  </si>
+  <si>
+    <t>A075</t>
+  </si>
+  <si>
+    <t>A076</t>
+  </si>
+  <si>
+    <t>A077</t>
+  </si>
+  <si>
+    <t>A078</t>
+  </si>
+  <si>
+    <t>A079</t>
+  </si>
+  <si>
+    <t>A080</t>
+  </si>
+  <si>
+    <t>A081</t>
+  </si>
+  <si>
+    <t>A082</t>
+  </si>
+  <si>
+    <t>A083</t>
+  </si>
+  <si>
+    <t>A084</t>
+  </si>
+  <si>
+    <t>A085</t>
+  </si>
+  <si>
+    <t>A086</t>
+  </si>
+  <si>
+    <t>A087</t>
+  </si>
+  <si>
+    <t>A088</t>
+  </si>
+  <si>
+    <t>A089</t>
+  </si>
+  <si>
+    <t>A090</t>
+  </si>
+  <si>
+    <t>A091</t>
+  </si>
+  <si>
+    <t>A092</t>
+  </si>
+  <si>
+    <t>A093</t>
+  </si>
+  <si>
+    <t>A094</t>
+  </si>
+  <si>
+    <t>A095</t>
+  </si>
+  <si>
+    <t>A096</t>
+  </si>
+  <si>
+    <t>A097</t>
+  </si>
+  <si>
+    <t>A098</t>
+  </si>
+  <si>
+    <t>A099</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
+    <t>pass001!</t>
+  </si>
+  <si>
+    <t>pass002!</t>
+  </si>
+  <si>
+    <t>pass003!</t>
+  </si>
+  <si>
+    <t>pass004!</t>
+  </si>
+  <si>
+    <t>pass005!</t>
+  </si>
+  <si>
+    <t>pass006!</t>
+  </si>
+  <si>
+    <t>pass007!</t>
+  </si>
+  <si>
+    <t>pass008!</t>
+  </si>
+  <si>
+    <t>pass009!</t>
+  </si>
+  <si>
+    <t>pass010!</t>
+  </si>
+  <si>
+    <t>pass011!</t>
+  </si>
+  <si>
+    <t>pass012!</t>
+  </si>
+  <si>
+    <t>pass013!</t>
+  </si>
+  <si>
+    <t>pass014!</t>
+  </si>
+  <si>
+    <t>pass015!</t>
+  </si>
+  <si>
+    <t>pass016!</t>
+  </si>
+  <si>
+    <t>pass017!</t>
+  </si>
+  <si>
+    <t>pass018!</t>
+  </si>
+  <si>
+    <t>pass019!</t>
+  </si>
+  <si>
+    <t>pass020!</t>
+  </si>
+  <si>
+    <t>pass021!</t>
+  </si>
+  <si>
+    <t>pass022!</t>
+  </si>
+  <si>
+    <t>pass023!</t>
+  </si>
+  <si>
+    <t>pass024!</t>
+  </si>
+  <si>
+    <t>pass025!</t>
+  </si>
+  <si>
+    <t>pass026!</t>
+  </si>
+  <si>
+    <t>pass027!</t>
+  </si>
+  <si>
+    <t>pass028!</t>
+  </si>
+  <si>
+    <t>pass029!</t>
+  </si>
+  <si>
+    <t>pass030!</t>
+  </si>
+  <si>
+    <t>pass031!</t>
+  </si>
+  <si>
+    <t>pass032!</t>
+  </si>
+  <si>
+    <t>pass033!</t>
+  </si>
+  <si>
+    <t>pass034!</t>
+  </si>
+  <si>
+    <t>pass035!</t>
+  </si>
+  <si>
+    <t>pass036!</t>
+  </si>
+  <si>
+    <t>pass037!</t>
+  </si>
+  <si>
+    <t>pass038!</t>
+  </si>
+  <si>
+    <t>pass039!</t>
+  </si>
+  <si>
+    <t>pass040!</t>
+  </si>
+  <si>
+    <t>pass041!</t>
+  </si>
+  <si>
+    <t>pass042!</t>
+  </si>
+  <si>
+    <t>pass043!</t>
+  </si>
+  <si>
+    <t>pass044!</t>
+  </si>
+  <si>
+    <t>pass045!</t>
+  </si>
+  <si>
+    <t>pass046!</t>
+  </si>
+  <si>
+    <t>pass047!</t>
+  </si>
+  <si>
+    <t>pass048!</t>
+  </si>
+  <si>
+    <t>pass049!</t>
+  </si>
+  <si>
+    <t>pass050!</t>
+  </si>
+  <si>
+    <t>pass051!</t>
+  </si>
+  <si>
+    <t>pass052!</t>
+  </si>
+  <si>
+    <t>pass053!</t>
+  </si>
+  <si>
+    <t>pass054!</t>
+  </si>
+  <si>
+    <t>pass055!</t>
+  </si>
+  <si>
+    <t>pass056!</t>
+  </si>
+  <si>
+    <t>pass057!</t>
+  </si>
+  <si>
+    <t>pass058!</t>
+  </si>
+  <si>
+    <t>pass059!</t>
+  </si>
+  <si>
+    <t>pass060!</t>
+  </si>
+  <si>
+    <t>pass061!</t>
+  </si>
+  <si>
+    <t>pass062!</t>
+  </si>
+  <si>
+    <t>pass063!</t>
+  </si>
+  <si>
+    <t>pass064!</t>
+  </si>
+  <si>
+    <t>pass065!</t>
+  </si>
+  <si>
+    <t>pass066!</t>
+  </si>
+  <si>
+    <t>pass067!</t>
+  </si>
+  <si>
+    <t>pass068!</t>
+  </si>
+  <si>
+    <t>pass069!</t>
+  </si>
+  <si>
+    <t>pass070!</t>
+  </si>
+  <si>
+    <t>pass071!</t>
+  </si>
+  <si>
+    <t>pass072!</t>
+  </si>
+  <si>
+    <t>pass073!</t>
+  </si>
+  <si>
+    <t>pass074!</t>
+  </si>
+  <si>
+    <t>pass075!</t>
+  </si>
+  <si>
+    <t>pass076!</t>
+  </si>
+  <si>
+    <t>pass077!</t>
+  </si>
+  <si>
+    <t>pass078!</t>
+  </si>
+  <si>
+    <t>pass079!</t>
+  </si>
+  <si>
+    <t>pass080!</t>
+  </si>
+  <si>
+    <t>pass081!</t>
+  </si>
+  <si>
+    <t>pass082!</t>
+  </si>
+  <si>
+    <t>pass083!</t>
+  </si>
+  <si>
+    <t>pass084!</t>
+  </si>
+  <si>
+    <t>pass085!</t>
+  </si>
+  <si>
+    <t>pass086!</t>
+  </si>
+  <si>
+    <t>pass087!</t>
+  </si>
+  <si>
+    <t>pass088!</t>
+  </si>
+  <si>
+    <t>pass089!</t>
+  </si>
+  <si>
+    <t>pass090!</t>
+  </si>
+  <si>
+    <t>pass091!</t>
+  </si>
+  <si>
+    <t>pass092!</t>
+  </si>
+  <si>
+    <t>pass093!</t>
+  </si>
+  <si>
+    <t>pass094!</t>
+  </si>
+  <si>
+    <t>pass095!</t>
+  </si>
+  <si>
+    <t>pass096!</t>
+  </si>
+  <si>
+    <t>pass097!</t>
+  </si>
+  <si>
+    <t>pass098!</t>
+  </si>
+  <si>
+    <t>pass099!</t>
+  </si>
+  <si>
+    <t>pass100!</t>
   </si>
 </sst>
 </file>
@@ -1642,10 +2242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D306" sqref="D306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,1683 +2289,2498 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
+      <c r="A4" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
+      <c r="A5" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
+      <c r="A6" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C6" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
+      <c r="A7" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C7" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
+      <c r="A8" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C8" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>68</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B49" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>627</v>
       </c>
     </row>
   </sheetData>

--- a/users.xlsx
+++ b/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F32510-0DF8-4941-AAC8-9DFD50C18885}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB4F1B6-3D66-4FCB-B6B8-AF65AFB489F9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="638">
   <si>
     <t>Username</t>
   </si>
@@ -1904,6 +1904,36 @@
   </si>
   <si>
     <t>pass100!</t>
+  </si>
+  <si>
+    <t>D006</t>
+  </si>
+  <si>
+    <t>D007</t>
+  </si>
+  <si>
+    <t>D008</t>
+  </si>
+  <si>
+    <t>D009</t>
+  </si>
+  <si>
+    <t>pass006</t>
+  </si>
+  <si>
+    <t>pass007</t>
+  </si>
+  <si>
+    <t>pass008</t>
+  </si>
+  <si>
+    <t>pass009</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>muscle</t>
   </si>
 </sst>
 </file>
@@ -2242,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C313"/>
+  <dimension ref="A1:C318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D306" sqref="D306"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,11 +2308,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>424</v>
-      </c>
-      <c r="B3" t="s">
-        <v>425</v>
+      <c r="A3" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="C3" t="s">
         <v>426</v>
@@ -2290,10 +2320,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C4" t="s">
         <v>426</v>
@@ -2301,10 +2331,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C5" t="s">
         <v>426</v>
@@ -2312,10 +2342,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C6" t="s">
         <v>426</v>
@@ -2323,10 +2353,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C7" t="s">
         <v>426</v>
@@ -2334,2452 +2364,2507 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>419</v>
+        <v>628</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>422</v>
+        <v>632</v>
       </c>
       <c r="C8" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
+      <c r="A9" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C9" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
+      <c r="A10" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C10" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
+      <c r="A11" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C11" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>424</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>425</v>
+      </c>
+      <c r="C12" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
+      <c r="A13" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C13" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>68</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B54" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>528</v>
+        <v>404</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>529</v>
+        <v>406</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>530</v>
+        <v>408</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>532</v>
+        <v>412</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B318" s="2" t="s">
         <v>627</v>
       </c>
     </row>

--- a/users.xlsx
+++ b/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB4F1B6-3D66-4FCB-B6B8-AF65AFB489F9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164D06B5-6316-407D-AEE9-3D3B667D12AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="639">
   <si>
     <t>Username</t>
   </si>
@@ -1934,6 +1934,9 @@
   </si>
   <si>
     <t>muscle</t>
+  </si>
+  <si>
+    <t>Michael</t>
   </si>
 </sst>
 </file>
@@ -2272,10 +2275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C318"/>
+  <dimension ref="A1:C319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,2442 +2432,2450 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
+      <c r="A14" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>68</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>528</v>
+        <v>412</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B318" s="2" t="s">
+      <c r="B319" s="2" t="s">
         <v>627</v>
       </c>
     </row>

--- a/users.xlsx
+++ b/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164D06B5-6316-407D-AEE9-3D3B667D12AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5015FF8D-C8A2-4457-B7E6-259706A4A0E6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="641">
   <si>
     <t>Username</t>
   </si>
@@ -1937,6 +1937,12 @@
   </si>
   <si>
     <t>Michael</t>
+  </si>
+  <si>
+    <t>D011</t>
+  </si>
+  <si>
+    <t>pass011</t>
   </si>
 </sst>
 </file>
@@ -2275,10 +2281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C319"/>
+  <dimension ref="A1:C320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,2449 +2439,2460 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>638</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>68</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>528</v>
+        <v>412</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B320" s="2" t="s">
         <v>627</v>
       </c>
     </row>
